--- a/config_Release/xiaoxiaole_caishen_power_cfg.xlsx
+++ b/config_Release/xiaoxiaole_caishen_power_cfg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
   <si>
     <t>元素消除倍数</t>
   </si>
@@ -308,16 +308,196 @@
   <si>
     <t>sky_girl_type|0是没有，1是金天女，2是银天女，3是铜天女</t>
   </si>
+  <si>
+    <t>xxl_bet_1</t>
+  </si>
+  <si>
+    <t>xxl_bet_2</t>
+  </si>
+  <si>
+    <t>xxl_bet_3</t>
+  </si>
+  <si>
+    <t>xxl_bet_4</t>
+  </si>
+  <si>
+    <t>xxl_bet_5</t>
+  </si>
+  <si>
+    <t>xxl_bet_6</t>
+  </si>
+  <si>
+    <t>xxl_bet_7</t>
+  </si>
+  <si>
+    <t>xxl_bet_8</t>
+  </si>
+  <si>
+    <t>xxl_bet_9</t>
+  </si>
+  <si>
+    <t>xxl_bet_10</t>
+  </si>
+  <si>
+    <t>xxl_bet_11</t>
+  </si>
+  <si>
+    <t>xxl_bet_12</t>
+  </si>
+  <si>
+    <t>xxl_bet_13</t>
+  </si>
+  <si>
+    <t>6元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -440,37 +620,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -482,19 +662,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,7 +1188,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1483,7 +1666,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1583,7 +1766,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1637,7 +1820,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1805,7 +1988,7 @@
       <c r="E12" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2707,7 +2890,7 @@
       <c r="E52" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -3263,7 +3446,7 @@
       <c r="C59" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -3928,7 +4111,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -4037,7 +4220,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4272,7 +4455,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4323,7 +4506,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4398,7 +4581,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6485,7 +6668,7 @@
       <c r="J58" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -6538,7 +6721,7 @@
       <c r="D4" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6548,12 +6731,12 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
@@ -6571,154 +6754,139 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B2" s="1">
         <v>1000</v>
       </c>
-      <c r="C2" s="1">
-        <v>8000</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B3" s="1">
         <v>2000</v>
       </c>
-      <c r="C3" s="1">
-        <v>16000</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B4" s="1">
         <v>5000</v>
       </c>
-      <c r="C4" s="1">
-        <v>40000</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B5" s="1">
         <v>10000</v>
       </c>
-      <c r="C5" s="1">
-        <v>80000</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B6" s="1">
         <v>30000</v>
       </c>
-      <c r="C6" s="1">
-        <v>240000</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B7" s="1">
         <v>60000</v>
       </c>
-      <c r="C7" s="1">
-        <v>480000</v>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B8" s="1">
         <v>120000</v>
       </c>
-      <c r="C8" s="1">
-        <v>960000</v>
+      <c r="C8" s="18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B9" s="1">
         <v>240000</v>
       </c>
-      <c r="C9" s="1">
-        <v>1920000</v>
+      <c r="C9" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B10" s="1">
         <v>480000</v>
       </c>
-      <c r="C10" s="1">
-        <v>3840000</v>
+      <c r="C10" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B11" s="1">
         <v>960000</v>
       </c>
-      <c r="C11" s="1">
-        <v>7680000</v>
+      <c r="C11" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B12" s="1">
         <v>1920000</v>
       </c>
-      <c r="C12" s="1">
-        <v>15360000</v>
+      <c r="C12" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B13" s="1">
         <v>5120000</v>
       </c>
-      <c r="C13" s="1">
-        <v>40960000</v>
+      <c r="C13" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B14" s="1">
         <v>10240000</v>
       </c>
-      <c r="C14" s="1">
-        <v>81920000</v>
+      <c r="C14" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="E14" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6994,7 +7162,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -7477,7 +7645,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -7955,7 +8123,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/config_Release/xiaoxiaole_caishen_power_cfg.xlsx
+++ b/config_Release/xiaoxiaole_caishen_power_cfg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
   <si>
     <t>元素消除倍数</t>
   </si>
@@ -308,196 +308,16 @@
   <si>
     <t>sky_girl_type|0是没有，1是金天女，2是银天女，3是铜天女</t>
   </si>
-  <si>
-    <t>xxl_bet_1</t>
-  </si>
-  <si>
-    <t>xxl_bet_2</t>
-  </si>
-  <si>
-    <t>xxl_bet_3</t>
-  </si>
-  <si>
-    <t>xxl_bet_4</t>
-  </si>
-  <si>
-    <t>xxl_bet_5</t>
-  </si>
-  <si>
-    <t>xxl_bet_6</t>
-  </si>
-  <si>
-    <t>xxl_bet_7</t>
-  </si>
-  <si>
-    <t>xxl_bet_8</t>
-  </si>
-  <si>
-    <t>xxl_bet_9</t>
-  </si>
-  <si>
-    <t>xxl_bet_10</t>
-  </si>
-  <si>
-    <t>xxl_bet_11</t>
-  </si>
-  <si>
-    <t>xxl_bet_12</t>
-  </si>
-  <si>
-    <t>xxl_bet_13</t>
-  </si>
-  <si>
-    <t>6元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>6元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -620,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -629,28 +449,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -662,23 +482,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1188,7 +1008,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1666,7 +1486,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1766,7 +1586,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1820,7 +1640,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1988,7 +1808,7 @@
       <c r="E12" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2890,7 +2710,7 @@
       <c r="E52" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -3446,7 +3266,7 @@
       <c r="C59" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -4111,7 +3931,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -4220,7 +4040,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4455,7 +4275,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4506,7 +4326,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4581,7 +4401,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6668,7 +6488,7 @@
       <c r="J58" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -6721,7 +6541,7 @@
       <c r="D4" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6731,7 +6551,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6754,136 +6574,164 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
         <v>1000</v>
       </c>
+      <c r="C2">
+        <f>B2*8</f>
+        <v>8000</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2000</v>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>5000</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C14" si="0">B3*8</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5000</v>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10000</v>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>30000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>240000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="1">
-        <v>30000</v>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>60000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>480000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1">
-        <v>60000</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>78</v>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18">
+        <v>120000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="1">
-        <v>120000</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>79</v>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <v>240000</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1920000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="1">
-        <v>240000</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>80</v>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18">
+        <v>480000</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3840000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="1">
-        <v>480000</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>81</v>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18">
+        <v>960000</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>7680000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="1">
-        <v>960000</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>82</v>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1920000</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>15360000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1920000</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>83</v>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18">
+        <v>5120000</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>40960000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5120000</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>84</v>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18">
+        <v>10240000</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>81920000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10240000</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>84</v>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18">
+        <v>20480000</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>163840000</v>
       </c>
       <c r="E14" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -7162,7 +7010,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -7645,7 +7493,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -8123,7 +7971,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/config_Release/xiaoxiaole_caishen_power_cfg.xlsx
+++ b/config_Release/xiaoxiaole_caishen_power_cfg.xlsx
@@ -6548,10 +6548,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6578,11 +6578,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="18">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C2">
-        <f>B2*8</f>
-        <v>8000</v>
+        <f t="shared" ref="C2:C13" si="0">B2*8</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -6590,11 +6590,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="18">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C14" si="0">B3*8</f>
-        <v>40000</v>
+        <f t="shared" si="0"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -6602,11 +6602,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="18">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -6614,11 +6614,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="18">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -6626,11 +6626,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="18">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>480000</v>
+        <v>960000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -6638,11 +6638,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="18">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1920000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -6650,11 +6650,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="18">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1920000</v>
+        <v>3840000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -6662,11 +6662,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="18">
-        <v>480000</v>
+        <v>960000</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>3840000</v>
+        <v>7680000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -6674,11 +6674,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="18">
-        <v>960000</v>
+        <v>1920000</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>7680000</v>
+        <v>15360000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -6686,11 +6686,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="18">
-        <v>1920000</v>
+        <v>5120000</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>15360000</v>
+        <v>40960000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -6698,11 +6698,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="18">
-        <v>5120000</v>
+        <v>10240000</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>40960000</v>
+        <v>81920000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -6710,25 +6710,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="18">
-        <v>10240000</v>
+        <v>20480000</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>81920000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18">
-        <v>20480000</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
         <v>163840000</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
